--- a/restaurant_analytics/parameter_config.xlsx
+++ b/restaurant_analytics/parameter_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3440099-9112-40EC-997E-04425B22D3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A431339-9BC0-4414-8A1F-F3038FA6806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="2295" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{64B7FDEF-506E-48A8-86ED-AD260AA9DF58}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -343,19 +343,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -364,13 +361,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,22 +716,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -777,7 +775,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2">
@@ -835,11 +833,11 @@
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="14">
         <v>15.42</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4">
         <v>14.9</v>
       </c>
@@ -875,7 +873,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B5">
@@ -928,7 +926,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6">
@@ -937,11 +935,11 @@
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <v>14.92</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6">
         <v>16.329999999999998</v>
       </c>
@@ -977,7 +975,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7">
@@ -986,11 +984,11 @@
       <c r="C7" s="4">
         <v>16</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <v>16.649999999999999</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7">
         <v>15.15</v>
       </c>
@@ -1026,7 +1024,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8">
@@ -1035,11 +1033,11 @@
       <c r="C8" s="4">
         <v>16</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="14">
         <v>15.67</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8">
         <v>16.25</v>
       </c>
@@ -1137,11 +1135,11 @@
       <c r="C10" s="4">
         <v>16</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <v>15.8</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10">
         <v>15.18</v>
       </c>
@@ -1186,11 +1184,11 @@
       <c r="C11" s="4">
         <v>32</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="14">
         <v>15.92</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11">
         <v>15.95</v>
       </c>
@@ -1226,7 +1224,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B12">
@@ -1235,11 +1233,11 @@
       <c r="C12" s="4">
         <v>32</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="14">
         <v>15.79</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12">
         <v>16.23</v>
       </c>
@@ -1293,25 +1291,25 @@
       <c r="F13" s="6">
         <v>15.74</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="6">
         <v>13.78</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="6">
         <v>16.829999999999998</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="6">
         <v>14.62</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="6">
         <v>15.29</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="6">
         <v>15.22</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="6">
         <v>15.65</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="6">
         <v>16.02</v>
       </c>
       <c r="P13" s="8">
@@ -1337,11 +1335,11 @@
       <c r="C14" s="4">
         <v>32</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="14">
         <v>15.26</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14">
         <v>15.33</v>
       </c>
@@ -1377,7 +1375,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B15">
@@ -1395,25 +1393,25 @@
       <c r="F15" s="6">
         <v>16.3</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="6">
         <v>15.23</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="6">
         <v>16.149999999999999</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="6">
         <v>15.41</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="6">
         <v>16.22</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="6">
         <v>16.2</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="6">
         <v>16.16</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="6">
         <v>16.010000000000002</v>
       </c>
       <c r="P15" s="8">
@@ -1448,25 +1446,25 @@
       <c r="F16" s="6">
         <v>17.93</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="6">
         <v>14.89</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="6">
         <v>15.95</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="6">
         <v>14.7</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="6">
         <v>14.51</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="6">
         <v>15.98</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="6">
         <v>16.36</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="6">
         <v>16.260000000000002</v>
       </c>
       <c r="P16" s="8">
@@ -1501,25 +1499,25 @@
       <c r="F17" s="6">
         <v>15.96</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="6">
         <v>14.85</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="6">
         <v>14.58</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="6">
         <v>15.59</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="6">
         <v>15.18</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="6">
         <v>14.02</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="6">
         <v>14.5</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="6">
         <v>14.81</v>
       </c>
       <c r="P17" s="8">
@@ -1554,25 +1552,25 @@
       <c r="F18" s="6">
         <v>14.39</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="6">
         <v>16.2</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="6">
         <v>15.23</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="6">
         <v>14.92</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="6">
         <v>15.27</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="6">
         <v>13.87</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="6">
         <v>15.13</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="6">
         <v>14.82</v>
       </c>
       <c r="P18" s="8">
@@ -1598,30 +1596,30 @@
       <c r="C19" s="4">
         <v>64</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="14">
         <v>16.37</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="16">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="6">
         <v>15.92</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="6">
         <v>15.91</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="6">
         <v>16.22</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="6">
         <v>16.54</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="6">
         <v>16.53</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="6">
         <v>15.16</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="6">
         <v>15.39</v>
       </c>
       <c r="P19" s="8">
@@ -1647,30 +1645,30 @@
       <c r="C20" s="4">
         <v>64</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="14">
         <v>15.68</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="16">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="6">
         <v>15.49</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="6">
         <v>14.22</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="6">
         <v>15.51</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="6">
         <v>15.77</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="6">
         <v>15.45</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="6">
         <v>13.87</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="6">
         <v>12.77</v>
       </c>
       <c r="P20" s="8">
@@ -1705,25 +1703,25 @@
       <c r="F21" s="6">
         <v>15.29</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="6">
         <v>13.54</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="6">
         <v>15.11</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="6">
         <v>14.52</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="6">
         <v>15.02</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="6">
         <v>14.6</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="6">
         <v>15.62</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="6">
         <v>13.96</v>
       </c>
       <c r="P21" s="8">
@@ -1749,30 +1747,30 @@
       <c r="C22" s="4">
         <v>64</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="14">
         <v>14.33</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="16">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="6">
         <v>12.53</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="6">
         <v>14.74</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="6">
         <v>16.440000000000001</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="6">
         <v>12.75</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="6">
         <v>14.43</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="6">
         <v>14.47</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="6">
         <v>11.94</v>
       </c>
       <c r="P22" s="8">
@@ -1805,6 +1803,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D19:F19"/>
@@ -1814,11 +1817,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1844,22 +1842,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1903,7 +1901,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2">
@@ -1997,7 +1995,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B5">
@@ -2044,7 +2042,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6">
@@ -2091,7 +2089,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7">
@@ -2138,7 +2136,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8">
@@ -2326,7 +2324,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B12">
@@ -2467,7 +2465,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B15">
@@ -2875,28 +2873,28 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -2935,7 +2933,7 @@
       <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" t="s">
         <v>39</v>
       </c>
       <c r="P2" s="7" t="s">
@@ -2943,7 +2941,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2">
@@ -2982,7 +2980,7 @@
       <c r="M3">
         <v>38.18</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="11">
         <v>6</v>
       </c>
       <c r="P3" s="8">
@@ -3034,7 +3032,7 @@
       <c r="M4" s="6">
         <v>23.64</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="11">
         <v>2</v>
       </c>
       <c r="P4" s="8">
@@ -3046,7 +3044,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B5">
@@ -3085,7 +3083,7 @@
       <c r="M5" s="5">
         <v>25.45</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="12">
         <v>5</v>
       </c>
       <c r="P5" s="8">
@@ -3097,7 +3095,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B6">
@@ -3136,7 +3134,7 @@
       <c r="M6" s="6">
         <v>30.91</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="11">
         <v>5</v>
       </c>
       <c r="P6" s="8">
@@ -3148,7 +3146,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B7">
@@ -3187,7 +3185,7 @@
       <c r="M7" s="6">
         <v>32.729999999999997</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="11">
         <v>3</v>
       </c>
       <c r="P7" s="8">
@@ -3199,7 +3197,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8">
@@ -3238,7 +3236,7 @@
       <c r="M8" s="6">
         <v>40</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="11">
         <v>5</v>
       </c>
       <c r="P8" s="8">
@@ -3289,7 +3287,7 @@
       <c r="M9" s="6">
         <v>29.09</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="11">
         <v>1</v>
       </c>
       <c r="P9" s="8">
@@ -3340,7 +3338,7 @@
       <c r="M10" s="6">
         <v>18.18</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="11">
         <v>2</v>
       </c>
       <c r="P10" s="8">
@@ -3391,7 +3389,7 @@
       <c r="M11" s="6">
         <v>32.729999999999997</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="11">
         <v>3</v>
       </c>
       <c r="P11" s="8">
@@ -3403,7 +3401,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B12">
@@ -3442,7 +3440,7 @@
       <c r="M12" s="6">
         <v>29.09</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="11">
         <v>6</v>
       </c>
       <c r="P12" s="8">
@@ -3493,7 +3491,7 @@
       <c r="M13" s="6">
         <v>34.549999999999997</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="11">
         <v>3</v>
       </c>
       <c r="P13" s="8">
@@ -3544,7 +3542,7 @@
       <c r="M14" s="6">
         <v>25.45</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="11">
         <v>2</v>
       </c>
       <c r="P14" s="8">
@@ -3556,7 +3554,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B15">
@@ -3595,7 +3593,7 @@
       <c r="M15" s="6">
         <v>32.729999999999997</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="11">
         <v>5</v>
       </c>
       <c r="P15" s="8">
@@ -3646,7 +3644,7 @@
       <c r="M16" s="6">
         <v>32.729999999999997</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="11">
         <v>4</v>
       </c>
       <c r="P16" s="8">
@@ -3700,7 +3698,7 @@
       <c r="M17" s="6">
         <v>27.27</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="11">
         <v>2</v>
       </c>
       <c r="P17" s="8">
@@ -3754,7 +3752,7 @@
       <c r="M18" s="6">
         <v>29.29</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="11">
         <v>2</v>
       </c>
       <c r="P18" s="8">
@@ -3808,7 +3806,7 @@
       <c r="M19" s="6">
         <v>20</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="11">
         <v>3</v>
       </c>
       <c r="P19" s="8">
@@ -3862,7 +3860,7 @@
       <c r="M20" s="6">
         <v>30.91</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="11">
         <v>4</v>
       </c>
       <c r="P20" s="8">
@@ -3916,7 +3914,7 @@
       <c r="M21" s="6">
         <v>27.27</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="11">
         <v>2</v>
       </c>
       <c r="P21" s="8">
@@ -3970,7 +3968,7 @@
       <c r="M22" s="6">
         <v>32.729999999999997</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="11">
         <v>0</v>
       </c>
       <c r="P22" s="8">

--- a/restaurant_analytics/parameter_config.xlsx
+++ b/restaurant_analytics/parameter_config.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A431339-9BC0-4414-8A1F-F3038FA6806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC229E2-9705-4A7D-A641-CF7D204C54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2295" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{64B7FDEF-506E-48A8-86ED-AD260AA9DF58}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{64B7FDEF-506E-48A8-86ED-AD260AA9DF58}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="2" r:id="rId1"/>
     <sheet name="test" sheetId="1" r:id="rId2"/>
     <sheet name="accuracy" sheetId="3" r:id="rId3"/>
+    <sheet name="PCA" sheetId="5" r:id="rId4"/>
+    <sheet name="training-data%" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="124">
   <si>
     <t>layer 2(b)</t>
   </si>
@@ -180,13 +183,265 @@
   </si>
   <si>
     <t>values&gt;30</t>
+  </si>
+  <si>
+    <t>model param</t>
+  </si>
+  <si>
+    <t>32x4</t>
+  </si>
+  <si>
+    <t>64x32</t>
+  </si>
+  <si>
+    <t>data %</t>
+  </si>
+  <si>
+    <t>run acc%</t>
+  </si>
+  <si>
+    <t>train loss</t>
+  </si>
+  <si>
+    <t>assuming epoch to be 1500</t>
+  </si>
+  <si>
+    <t>test loss</t>
+  </si>
+  <si>
+    <t>WEEKEND DATA:</t>
+  </si>
+  <si>
+    <t>32x4        avg acc - 25.293%</t>
+  </si>
+  <si>
+    <t>training:   24.91, 21.51, 21.84, 20.80, 20.50, 23.00, 20.60, 22.42, 19.63, 23.95</t>
+  </si>
+  <si>
+    <t>testing:    34.20, 25.17, 30.59, 32.08, 34.37, 28.33, 31.12, 32.80, 32.46, 28.88</t>
+  </si>
+  <si>
+    <t>Accuracy:   11.76, 35.29, 35.29, 23.53, 23.53, 35.29, 23.53, 23.53, 23.53, 17.65 - d</t>
+  </si>
+  <si>
+    <t>        std div - 7.866%</t>
+  </si>
+  <si>
+    <t>        highest - 35.29%</t>
+  </si>
+  <si>
+    <t>        lowest - 11.76%</t>
+  </si>
+  <si>
+    <t>        median - 23.53%</t>
+  </si>
+  <si>
+    <t>64x32       avg acc - 6.468%</t>
+  </si>
+  <si>
+    <t>training:   17.80, 17.99, 18.02, 18.22, 18.37, 17.99, 18.00, 18.48, 18.23, 18.71</t>
+  </si>
+  <si>
+    <t>testing:    41.70, 36.55, 35.46, 34.99, 34.67, 36.94, 39.15, 40.49, 36.25, 38.98</t>
+  </si>
+  <si>
+    <t>Accuracy:   00.00, 11.76, 00.00, 5.88,  11.76, 5.88,  0.00,  11.76, 5.88,  11.76 - c</t>
+  </si>
+  <si>
+    <t>        std div - 5.148%</t>
+  </si>
+  <si>
+    <t>        highest - 11.76%</t>
+  </si>
+  <si>
+    <t>        lowest - 0.0%</t>
+  </si>
+  <si>
+    <t>        median - 5.88%</t>
+  </si>
+  <si>
+    <t>WEEKDAY DATA</t>
+  </si>
+  <si>
+    <t>64x32       avg acc - 40.974%</t>
+  </si>
+  <si>
+    <t>training:   12.69, 13.55, 14.40, 14.41, 13.95, 14.12, 14.00, 13.79, 13.97, 14.25</t>
+  </si>
+  <si>
+    <t>testing:    25.33, 20.53, 16.82, 16.70, 18.82, 18.64, 17.20, 18.90, 19.97, 16.44</t>
+  </si>
+  <si>
+    <t>Accuracy:   43.90, 41.46, 36.59, 41.46, 41.46, 46.34, 36.59, 39.02, 39.02, 43.90 - b</t>
+  </si>
+  <si>
+    <t>        std div - 3.209%</t>
+  </si>
+  <si>
+    <t>        highest - 46.34%</t>
+  </si>
+  <si>
+    <t>        lowest - 36.59%</t>
+  </si>
+  <si>
+    <t>        median - 41.46%</t>
+  </si>
+  <si>
+    <t>32x4        avg acc - 39.267%</t>
+  </si>
+  <si>
+    <t>training:   25.73, 14.34, 14.66, 14.48, 14.21, 14.57, 25.91, 14.10, 14.19, 14.00</t>
+  </si>
+  <si>
+    <t>testing:    20.24, 17.54, 16.21, 22.45, 16.76, 15.73, 20.15, 16.02, 16.12, 17.32</t>
+  </si>
+  <si>
+    <t>Accuracy:   14.63, 39.02, 46.34, 36.59, 43.90, 46.34, 17.07, 48.78, 46.34, 53.66 - a</t>
+  </si>
+  <si>
+    <t>        std div - 13.233%</t>
+  </si>
+  <si>
+    <t>        highest - 53.66%</t>
+  </si>
+  <si>
+    <t>        lowest - 14.63%</t>
+  </si>
+  <si>
+    <t>        median - 46.34%</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>average - 28.001%</t>
+  </si>
+  <si>
+    <t>std div - 16.114%</t>
+  </si>
+  <si>
+    <t>highest - 53.66%</t>
+  </si>
+  <si>
+    <t>lowest - 0.0%</t>
+  </si>
+  <si>
+    <t>median - 35.29%</t>
+  </si>
+  <si>
+    <t>   ALL:</t>
+  </si>
+  <si>
+    <t>Explained Variance Ratio: [0.92929517 0.04370666 0.02699817]</t>
+  </si>
+  <si>
+    <t>Principal Components (directions):</t>
+  </si>
+  <si>
+    <t> [[ 0.44302331  0.12716341 -0.88744567]</t>
+  </si>
+  <si>
+    <t> [-0.89153764  0.16660444 -0.42119307]</t>
+  </si>
+  <si>
+    <t> [ 0.09429204  0.97778956  0.18718062]]</t>
+  </si>
+  <si>
+    <t>z = -1.422·x + -0.814·y + 79.815</t>
+  </si>
+  <si>
+    <t>    Weekend 32x4</t>
+  </si>
+  <si>
+    <t>Explained Variance Ratio: [0.90310887 0.07347322 0.02341791]</t>
+  </si>
+  <si>
+    <t> [[ 0.06683018  0.24224916 -0.96790964]</t>
+  </si>
+  <si>
+    <t> [ 0.46101105 -0.86781785 -0.18536719]</t>
+  </si>
+  <si>
+    <t> [ 0.88487431  0.43382891  0.16967596]]</t>
+  </si>
+  <si>
+    <t>z = -1.893·x + -1.855·y + 124.297</t>
+  </si>
+  <si>
+    <t>    Weekend 64x32</t>
+  </si>
+  <si>
+    <t>Explained Variance Ratio: [0.82442526 0.17443009 0.00114465]</t>
+  </si>
+  <si>
+    <t> [[-0.03785764  0.09767485 -0.99449808]</t>
+  </si>
+  <si>
+    <t> [ 0.01171339  0.9951865   0.09729657]</t>
+  </si>
+  <si>
+    <t> [-0.99921449  0.00796552  0.03881952]]</t>
+  </si>
+  <si>
+    <t>z = 13.163·x + -0.275·y + -222.525</t>
+  </si>
+  <si>
+    <t>    Weekday 64x32</t>
+  </si>
+  <si>
+    <t>Explained Variance Ratio: [0.67748002 0.32136644 0.00115354]</t>
+  </si>
+  <si>
+    <t> [[-0.08609232  0.50066591  0.8613488 ]</t>
+  </si>
+  <si>
+    <t> [-0.16131584  0.84614518 -0.50795229]</t>
+  </si>
+  <si>
+    <t> [ 0.98314054  0.18267999 -0.00791874]]</t>
+  </si>
+  <si>
+    <t>Best fit plane: z = 3.382·x + 1.001·y + -25.044</t>
+  </si>
+  <si>
+    <t>    Weekday 32x4</t>
+  </si>
+  <si>
+    <t>Explained Variance Ratio: [0.9743399  0.01917612 0.00648399]</t>
+  </si>
+  <si>
+    <t> [[ 0.32696803  0.11319084 -0.93823224]</t>
+  </si>
+  <si>
+    <t> [-0.66273294  0.73521922 -0.14225945]</t>
+  </si>
+  <si>
+    <t> [ 0.67370391  0.66831171  0.31540847]]</t>
+  </si>
+  <si>
+    <t>z = -2.160·x + -1.557·y + 102.972</t>
+  </si>
+  <si>
+    <t>weekend data</t>
+  </si>
+  <si>
+    <t>correctness is &lt;15</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>possible values</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +449,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +482,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F1F1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -327,11 +607,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -349,10 +702,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -370,9 +723,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -784,11 +1171,11 @@
       <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>16.25</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3">
         <v>17.09</v>
       </c>
@@ -833,11 +1220,11 @@
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>15.42</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4">
         <v>14.9</v>
       </c>
@@ -935,11 +1322,11 @@
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>14.92</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6">
         <v>16.329999999999998</v>
       </c>
@@ -984,11 +1371,11 @@
       <c r="C7" s="4">
         <v>16</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>16.649999999999999</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7">
         <v>15.15</v>
       </c>
@@ -1033,11 +1420,11 @@
       <c r="C8" s="4">
         <v>16</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>15.67</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8">
         <v>16.25</v>
       </c>
@@ -1135,11 +1522,11 @@
       <c r="C10" s="4">
         <v>16</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>15.8</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10">
         <v>15.18</v>
       </c>
@@ -1184,11 +1571,11 @@
       <c r="C11" s="4">
         <v>32</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>15.92</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11">
         <v>15.95</v>
       </c>
@@ -1233,11 +1620,11 @@
       <c r="C12" s="4">
         <v>32</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>15.79</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12">
         <v>16.23</v>
       </c>
@@ -1335,11 +1722,11 @@
       <c r="C14" s="4">
         <v>32</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>15.26</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14">
         <v>15.33</v>
       </c>
@@ -1596,11 +1983,11 @@
       <c r="C19" s="4">
         <v>64</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>16.37</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="6">
         <v>15.92</v>
       </c>
@@ -1645,11 +2032,11 @@
       <c r="C20" s="4">
         <v>64</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>15.68</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="6">
         <v>15.49</v>
       </c>
@@ -1747,11 +2134,11 @@
       <c r="C22" s="4">
         <v>64</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>14.33</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="6">
         <v>12.53</v>
       </c>
@@ -1803,11 +2190,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D19:F19"/>
@@ -1817,6 +2199,11 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2872,8 +3259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21836ACE-DF75-4FA9-A554-464296BD7EFE}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,4 +4395,2734 @@
     <ignoredError sqref="O3:P18 O20:P22 O19" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89560A01-F54F-4C9D-8B66-85FCA691ED4B}">
+  <dimension ref="A1:P87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="29"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0B48CE-F95E-4EC7-A02B-A6DD9397A14F}">
+  <dimension ref="B4:AB38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="P4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="R5" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="S5" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="T5" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="U5" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="V5" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="W5" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="X5" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="Y5" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="Z5" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="AA5" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="AB5" s="32">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>33.33</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>22.22</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>26.67</v>
+      </c>
+      <c r="H6" s="4">
+        <v>22.22</v>
+      </c>
+      <c r="I6" s="25">
+        <v>33.33</v>
+      </c>
+      <c r="J6">
+        <v>41.67</v>
+      </c>
+      <c r="K6">
+        <v>33.33</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>26.67</v>
+      </c>
+      <c r="N6">
+        <v>13.89</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6">
+        <v>20.8</v>
+      </c>
+      <c r="R6">
+        <v>21.21</v>
+      </c>
+      <c r="S6">
+        <v>23.07</v>
+      </c>
+      <c r="T6">
+        <v>138.88999999999999</v>
+      </c>
+      <c r="U6">
+        <v>21.68</v>
+      </c>
+      <c r="V6" s="4">
+        <v>22.18</v>
+      </c>
+      <c r="W6" s="25">
+        <v>16.66</v>
+      </c>
+      <c r="X6">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="Y6">
+        <v>19.79</v>
+      </c>
+      <c r="Z6">
+        <v>137.41999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>17.2</v>
+      </c>
+      <c r="AB6">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7">
+        <v>33.33</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>22.22</v>
+      </c>
+      <c r="F7">
+        <v>37.5</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="I7" s="25">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>33.33</v>
+      </c>
+      <c r="K7">
+        <v>38.89</v>
+      </c>
+      <c r="L7">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25">
+        <v>20.61</v>
+      </c>
+      <c r="R7">
+        <v>20.59</v>
+      </c>
+      <c r="S7">
+        <v>23.76</v>
+      </c>
+      <c r="T7">
+        <v>20.93</v>
+      </c>
+      <c r="U7">
+        <v>22.27</v>
+      </c>
+      <c r="V7" s="4">
+        <v>23.33</v>
+      </c>
+      <c r="W7" s="25">
+        <v>16.73</v>
+      </c>
+      <c r="X7">
+        <v>17.18</v>
+      </c>
+      <c r="Y7">
+        <v>20.78</v>
+      </c>
+      <c r="Z7">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>16.34</v>
+      </c>
+      <c r="AB7">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" s="24"/>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>41.67</v>
+      </c>
+      <c r="E8">
+        <v>27.78</v>
+      </c>
+      <c r="F8">
+        <v>37.5</v>
+      </c>
+      <c r="G8">
+        <v>36.67</v>
+      </c>
+      <c r="H8" s="4">
+        <v>22.22</v>
+      </c>
+      <c r="I8" s="25">
+        <v>66.67</v>
+      </c>
+      <c r="J8">
+        <v>25</v>
+      </c>
+      <c r="K8">
+        <v>27.78</v>
+      </c>
+      <c r="L8">
+        <v>33.33</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>11.11</v>
+      </c>
+      <c r="P8" s="24"/>
+      <c r="Q8">
+        <v>19.36</v>
+      </c>
+      <c r="R8">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="S8">
+        <v>22.25</v>
+      </c>
+      <c r="T8">
+        <v>23.34</v>
+      </c>
+      <c r="U8">
+        <v>20.13</v>
+      </c>
+      <c r="V8" s="4">
+        <v>22.96</v>
+      </c>
+      <c r="W8" s="25">
+        <v>16.59</v>
+      </c>
+      <c r="X8">
+        <v>17.37</v>
+      </c>
+      <c r="Y8">
+        <v>20.95</v>
+      </c>
+      <c r="Z8">
+        <v>18.45</v>
+      </c>
+      <c r="AA8">
+        <v>17.64</v>
+      </c>
+      <c r="AB8">
+        <v>17.239999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="F9">
+        <v>33.33</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="25"/>
+      <c r="L9">
+        <v>20.83</v>
+      </c>
+      <c r="P9" s="24"/>
+      <c r="T9">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="Z9">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="F10">
+        <v>33.33</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="25"/>
+      <c r="L10">
+        <v>29.17</v>
+      </c>
+      <c r="P10" s="24"/>
+      <c r="T10">
+        <v>20.93</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="25"/>
+      <c r="Z10">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="25"/>
+      <c r="P11" s="24"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="25"/>
+      <c r="P12" s="24"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="25"/>
+      <c r="P13" s="24"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="25"/>
+      <c r="P14" s="24"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="25"/>
+      <c r="P15" s="24"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="25"/>
+      <c r="P16" s="24"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="26">
+        <f>AVERAGE(C6:C8)</f>
+        <v>38.886666666666663</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" ref="D17:N17" si="0">AVERAGE(D6:D8)</f>
+        <v>38.89</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="0"/>
+        <v>24.073333333333334</v>
+      </c>
+      <c r="F17" s="26">
+        <f>AVERAGE(F6:F10)</f>
+        <v>28.332000000000001</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="0"/>
+        <v>31.113333333333333</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="0"/>
+        <v>21.293333333333333</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J17" s="26">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K17" s="26">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="L17" s="26">
+        <f>AVERAGE(L6:L10)</f>
+        <v>20</v>
+      </c>
+      <c r="M17" s="26">
+        <f t="shared" si="0"/>
+        <v>28.89</v>
+      </c>
+      <c r="N17" s="26">
+        <f t="shared" si="0"/>
+        <v>13.89</v>
+      </c>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="26">
+        <f t="shared" ref="Q17:AB17" si="1">AVERAGE(Q6:Q8)</f>
+        <v>20.256666666666664</v>
+      </c>
+      <c r="R17" s="26">
+        <f t="shared" si="1"/>
+        <v>20.656666666666666</v>
+      </c>
+      <c r="S17" s="26">
+        <f t="shared" si="1"/>
+        <v>23.026666666666667</v>
+      </c>
+      <c r="T17" s="26">
+        <f>AVERAGE(T6:T10)</f>
+        <v>44.701999999999998</v>
+      </c>
+      <c r="U17" s="26">
+        <f t="shared" si="1"/>
+        <v>21.36</v>
+      </c>
+      <c r="V17" s="26">
+        <f t="shared" si="1"/>
+        <v>22.823333333333334</v>
+      </c>
+      <c r="W17" s="26">
+        <f t="shared" si="1"/>
+        <v>16.66</v>
+      </c>
+      <c r="X17" s="26">
+        <f t="shared" si="1"/>
+        <v>17.459999999999997</v>
+      </c>
+      <c r="Y17" s="26">
+        <f t="shared" si="1"/>
+        <v>20.506666666666664</v>
+      </c>
+      <c r="Z17" s="26">
+        <f>AVERAGE(Z6:Z10)</f>
+        <v>41.529999999999994</v>
+      </c>
+      <c r="AA17" s="26">
+        <f t="shared" si="1"/>
+        <v>17.059999999999999</v>
+      </c>
+      <c r="AB17" s="26">
+        <f t="shared" si="1"/>
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="25"/>
+      <c r="P18" s="24"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="25"/>
+      <c r="P19" s="24"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="25"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="H20" s="4"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="H24" s="33">
+        <v>0.7</v>
+      </c>
+      <c r="I24" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="K24" s="32">
+        <v>0.85</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="M24" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="N24" s="32">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="D25">
+        <v>21.42</v>
+      </c>
+      <c r="E25">
+        <v>26.48</v>
+      </c>
+      <c r="F25">
+        <v>120.01</v>
+      </c>
+      <c r="G25">
+        <v>29.97</v>
+      </c>
+      <c r="H25" s="4">
+        <v>36.229999999999997</v>
+      </c>
+      <c r="I25" s="25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>21.25</v>
+      </c>
+      <c r="K25">
+        <v>23.7</v>
+      </c>
+      <c r="L25">
+        <v>120.3</v>
+      </c>
+      <c r="M25">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="N25">
+        <v>53.64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26">
+        <v>18.14</v>
+      </c>
+      <c r="D26">
+        <v>21.98</v>
+      </c>
+      <c r="E26">
+        <v>27.7</v>
+      </c>
+      <c r="F26">
+        <v>26.53</v>
+      </c>
+      <c r="G26">
+        <v>25.97</v>
+      </c>
+      <c r="H26" s="4">
+        <v>33.9</v>
+      </c>
+      <c r="I26" s="25">
+        <v>15.08</v>
+      </c>
+      <c r="J26">
+        <v>23.43</v>
+      </c>
+      <c r="K26">
+        <v>24.74</v>
+      </c>
+      <c r="L26">
+        <v>33.28</v>
+      </c>
+      <c r="M26">
+        <v>38.51</v>
+      </c>
+      <c r="N26">
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="D27">
+        <v>21.55</v>
+      </c>
+      <c r="E27">
+        <v>26.68</v>
+      </c>
+      <c r="F27">
+        <v>26.26</v>
+      </c>
+      <c r="G27">
+        <v>27.3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>31.55</v>
+      </c>
+      <c r="I27" s="25">
+        <v>13.24</v>
+      </c>
+      <c r="J27">
+        <v>22.97</v>
+      </c>
+      <c r="K27">
+        <v>23.15</v>
+      </c>
+      <c r="L27">
+        <v>27.35</v>
+      </c>
+      <c r="M27">
+        <v>32.35</v>
+      </c>
+      <c r="N27">
+        <v>68.28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="F28">
+        <v>28.66</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="25"/>
+      <c r="L28">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="F29">
+        <v>26.84</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="25"/>
+      <c r="L29">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="26">
+        <f>AVERAGE(C25:C27)</f>
+        <v>17.796666666666667</v>
+      </c>
+      <c r="D36" s="26">
+        <f t="shared" ref="D36:N36" si="2">AVERAGE(D25:D27)</f>
+        <v>21.650000000000002</v>
+      </c>
+      <c r="E36" s="26">
+        <f t="shared" si="2"/>
+        <v>26.953333333333333</v>
+      </c>
+      <c r="F36" s="26">
+        <f>AVERAGE(F25:F29)</f>
+        <v>45.660000000000004</v>
+      </c>
+      <c r="G36" s="26">
+        <f t="shared" si="2"/>
+        <v>27.746666666666666</v>
+      </c>
+      <c r="H36" s="26">
+        <f t="shared" si="2"/>
+        <v>33.893333333333331</v>
+      </c>
+      <c r="I36" s="26">
+        <f t="shared" si="2"/>
+        <v>15.773333333333333</v>
+      </c>
+      <c r="J36" s="26">
+        <f t="shared" si="2"/>
+        <v>22.55</v>
+      </c>
+      <c r="K36" s="26">
+        <f t="shared" si="2"/>
+        <v>23.863333333333333</v>
+      </c>
+      <c r="L36" s="26">
+        <f>AVERAGE(L25:L29)</f>
+        <v>48.17199999999999</v>
+      </c>
+      <c r="M36" s="26">
+        <f t="shared" si="2"/>
+        <v>35.603333333333332</v>
+      </c>
+      <c r="N36" s="26">
+        <f t="shared" si="2"/>
+        <v>62.04666666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="24"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B25:B38"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="P6:P19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A78AAE-CA00-41B6-997B-F9DCAD3D7A4A}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>45780</v>
+      </c>
+      <c r="B2">
+        <v>165</v>
+      </c>
+      <c r="C2">
+        <v>168</v>
+      </c>
+      <c r="D2">
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <v>161</v>
+      </c>
+      <c r="F2">
+        <v>151</v>
+      </c>
+      <c r="G2" s="4">
+        <v>154</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(B2:G2)</f>
+        <v>160</v>
+      </c>
+      <c r="J2">
+        <f>ROUND(B2*Q2+C2*R2+D2*S2+E2*T2+F2*U2+G2*V2,0)</f>
+        <v>160</v>
+      </c>
+      <c r="Q2">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R2">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S2">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T2">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U2">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V2">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>45786</v>
+      </c>
+      <c r="B3">
+        <v>144</v>
+      </c>
+      <c r="C3">
+        <v>154</v>
+      </c>
+      <c r="D3">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>141</v>
+      </c>
+      <c r="F3">
+        <v>144</v>
+      </c>
+      <c r="G3" s="4">
+        <v>139</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(AVERAGE(B3:G3),0)</f>
+        <v>146</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J18" si="0">ROUND(B3*Q3+C3*R3+D3*S3+E3*T3+F3*U3+G3*V3,0)</f>
+        <v>146</v>
+      </c>
+      <c r="Q3">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R3">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S3">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T3">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U3">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V3">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>45787</v>
+      </c>
+      <c r="B4">
+        <v>168</v>
+      </c>
+      <c r="C4">
+        <v>169</v>
+      </c>
+      <c r="D4">
+        <v>170</v>
+      </c>
+      <c r="E4">
+        <v>171</v>
+      </c>
+      <c r="F4">
+        <v>164</v>
+      </c>
+      <c r="G4" s="4">
+        <v>161</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H18" si="1">ROUND(AVERAGE(B4:G4),0)</f>
+        <v>167</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="Q4">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R4">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S4">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T4">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U4">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V4">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>45793</v>
+      </c>
+      <c r="B5">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>126</v>
+      </c>
+      <c r="D5">
+        <v>119</v>
+      </c>
+      <c r="E5">
+        <v>116</v>
+      </c>
+      <c r="F5">
+        <v>110</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="Q5">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R5">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S5">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T5">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U5">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V5">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>45794</v>
+      </c>
+      <c r="B6">
+        <v>164</v>
+      </c>
+      <c r="C6">
+        <v>171</v>
+      </c>
+      <c r="D6">
+        <v>162</v>
+      </c>
+      <c r="E6">
+        <v>163</v>
+      </c>
+      <c r="F6">
+        <v>172</v>
+      </c>
+      <c r="G6" s="4">
+        <v>163</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="Q6">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R6">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S6">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T6">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U6">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V6">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>45800</v>
+      </c>
+      <c r="B7">
+        <v>149</v>
+      </c>
+      <c r="C7">
+        <v>155</v>
+      </c>
+      <c r="D7">
+        <v>155</v>
+      </c>
+      <c r="E7">
+        <v>160</v>
+      </c>
+      <c r="F7">
+        <v>155</v>
+      </c>
+      <c r="G7" s="4">
+        <v>148</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="Q7">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R7">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S7">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T7">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U7">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V7">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>45801</v>
+      </c>
+      <c r="B8">
+        <v>169</v>
+      </c>
+      <c r="C8">
+        <v>177</v>
+      </c>
+      <c r="D8">
+        <v>167</v>
+      </c>
+      <c r="E8">
+        <v>166</v>
+      </c>
+      <c r="F8">
+        <v>177</v>
+      </c>
+      <c r="G8" s="4">
+        <v>171</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="Q8">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R8">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S8">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T8">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U8">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V8">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>45807</v>
+      </c>
+      <c r="B9">
+        <v>129</v>
+      </c>
+      <c r="C9">
+        <v>144</v>
+      </c>
+      <c r="D9">
+        <v>139</v>
+      </c>
+      <c r="E9">
+        <v>138</v>
+      </c>
+      <c r="F9">
+        <v>136</v>
+      </c>
+      <c r="G9" s="4">
+        <v>126</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="Q9">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R9">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S9">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T9">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U9">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V9">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>45808</v>
+      </c>
+      <c r="B10">
+        <v>168</v>
+      </c>
+      <c r="C10">
+        <v>178</v>
+      </c>
+      <c r="D10">
+        <v>169</v>
+      </c>
+      <c r="E10">
+        <v>168</v>
+      </c>
+      <c r="F10">
+        <v>178</v>
+      </c>
+      <c r="G10" s="4">
+        <v>171</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="Q10">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R10">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S10">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T10">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U10">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V10">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>45814</v>
+      </c>
+      <c r="B11">
+        <v>153</v>
+      </c>
+      <c r="C11">
+        <v>161</v>
+      </c>
+      <c r="D11">
+        <v>162</v>
+      </c>
+      <c r="E11">
+        <v>163</v>
+      </c>
+      <c r="F11">
+        <v>161</v>
+      </c>
+      <c r="G11" s="4">
+        <v>156</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="Q11">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R11">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S11">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T11">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U11">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V11">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>45815</v>
+      </c>
+      <c r="B12">
+        <v>166</v>
+      </c>
+      <c r="C12">
+        <v>176</v>
+      </c>
+      <c r="D12">
+        <v>169</v>
+      </c>
+      <c r="E12">
+        <v>169</v>
+      </c>
+      <c r="F12">
+        <v>177</v>
+      </c>
+      <c r="G12" s="4">
+        <v>168</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>171</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="Q12">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R12">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S12">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T12">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U12">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V12">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>45821</v>
+      </c>
+      <c r="B13">
+        <v>155</v>
+      </c>
+      <c r="C13">
+        <v>156</v>
+      </c>
+      <c r="D13">
+        <v>162</v>
+      </c>
+      <c r="E13">
+        <v>169</v>
+      </c>
+      <c r="F13">
+        <v>161</v>
+      </c>
+      <c r="G13" s="4">
+        <v>159</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="Q13">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R13">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S13">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T13">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U13">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V13">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>45822</v>
+      </c>
+      <c r="B14">
+        <v>169</v>
+      </c>
+      <c r="C14">
+        <v>169</v>
+      </c>
+      <c r="D14">
+        <v>169</v>
+      </c>
+      <c r="E14">
+        <v>173</v>
+      </c>
+      <c r="F14">
+        <v>167</v>
+      </c>
+      <c r="G14" s="4">
+        <v>173</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="Q14">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R14">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S14">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T14">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U14">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V14">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>45828</v>
+      </c>
+      <c r="B15">
+        <v>161</v>
+      </c>
+      <c r="C15">
+        <v>165</v>
+      </c>
+      <c r="D15">
+        <v>165</v>
+      </c>
+      <c r="E15">
+        <v>159</v>
+      </c>
+      <c r="F15">
+        <v>162</v>
+      </c>
+      <c r="G15" s="4">
+        <v>159</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="Q15">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R15">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S15">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T15">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U15">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V15">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>45829</v>
+      </c>
+      <c r="B16">
+        <v>184</v>
+      </c>
+      <c r="C16">
+        <v>179</v>
+      </c>
+      <c r="D16">
+        <v>186</v>
+      </c>
+      <c r="E16">
+        <v>190</v>
+      </c>
+      <c r="F16">
+        <v>188</v>
+      </c>
+      <c r="G16" s="4">
+        <v>185</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="Q16">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R16">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S16">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T16">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U16">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V16">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>45835</v>
+      </c>
+      <c r="B17">
+        <v>173</v>
+      </c>
+      <c r="C17">
+        <v>168</v>
+      </c>
+      <c r="D17">
+        <v>176</v>
+      </c>
+      <c r="E17">
+        <v>178</v>
+      </c>
+      <c r="F17">
+        <v>173</v>
+      </c>
+      <c r="G17" s="4">
+        <v>176</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="Q17">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R17">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S17">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T17">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U17">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V17">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>45836</v>
+      </c>
+      <c r="B18">
+        <v>156</v>
+      </c>
+      <c r="C18">
+        <v>156</v>
+      </c>
+      <c r="D18">
+        <v>158</v>
+      </c>
+      <c r="E18">
+        <v>132</v>
+      </c>
+      <c r="F18">
+        <v>145</v>
+      </c>
+      <c r="G18" s="4">
+        <v>150</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="Q18">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="R18">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="S18">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="T18">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="U18">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="V18">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="35">
+        <v>37.5</v>
+      </c>
+      <c r="C19" s="35">
+        <v>36.5</v>
+      </c>
+      <c r="D19" s="35">
+        <v>38.89</v>
+      </c>
+      <c r="E19" s="35">
+        <v>41.67</v>
+      </c>
+      <c r="F19" s="35">
+        <v>50</v>
+      </c>
+      <c r="G19" s="36">
+        <v>36.67</v>
+      </c>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.15545330182813083</v>
+      </c>
+      <c r="C20">
+        <v>0.15130788044604734</v>
+      </c>
+      <c r="D20">
+        <v>0.16121543754922688</v>
+      </c>
+      <c r="E20">
+        <v>0.17273970899141899</v>
+      </c>
+      <c r="F20">
+        <v>0.20727106910417445</v>
+      </c>
+      <c r="G20">
+        <v>0.15201260208100154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/restaurant_analytics/parameter_config.xlsx
+++ b/restaurant_analytics/parameter_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardi\Documents\git-repo\swe_dev\restaurant_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC229E2-9705-4A7D-A641-CF7D204C54F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F422FB-F06E-4C3C-9A45-F1AB4DC80799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{64B7FDEF-506E-48A8-86ED-AD260AA9DF58}"/>
+    <workbookView xWindow="30180" yWindow="405" windowWidth="25755" windowHeight="14130" activeTab="5" xr2:uid="{64B7FDEF-506E-48A8-86ED-AD260AA9DF58}"/>
   </bookViews>
   <sheets>
     <sheet name="train" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -684,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -702,10 +702,27 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -723,7 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,26 +752,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,22 +1102,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -1171,11 +1170,11 @@
       <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="26">
         <v>16.25</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3">
         <v>17.09</v>
       </c>
@@ -1220,11 +1219,11 @@
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="27">
         <v>15.42</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4">
         <v>14.9</v>
       </c>
@@ -1322,11 +1321,11 @@
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="27">
         <v>14.92</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
       <c r="G6">
         <v>16.329999999999998</v>
       </c>
@@ -1371,11 +1370,11 @@
       <c r="C7" s="4">
         <v>16</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="27">
         <v>16.649999999999999</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7">
         <v>15.15</v>
       </c>
@@ -1420,11 +1419,11 @@
       <c r="C8" s="4">
         <v>16</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="27">
         <v>15.67</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8">
         <v>16.25</v>
       </c>
@@ -1522,11 +1521,11 @@
       <c r="C10" s="4">
         <v>16</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="27">
         <v>15.8</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
       <c r="G10">
         <v>15.18</v>
       </c>
@@ -1571,11 +1570,11 @@
       <c r="C11" s="4">
         <v>32</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="27">
         <v>15.92</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="G11">
         <v>15.95</v>
       </c>
@@ -1620,11 +1619,11 @@
       <c r="C12" s="4">
         <v>32</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="27">
         <v>15.79</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12">
         <v>16.23</v>
       </c>
@@ -1722,11 +1721,11 @@
       <c r="C14" s="4">
         <v>32</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="27">
         <v>15.26</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14">
         <v>15.33</v>
       </c>
@@ -1983,11 +1982,11 @@
       <c r="C19" s="4">
         <v>64</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="27">
         <v>16.37</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="6">
         <v>15.92</v>
       </c>
@@ -2032,11 +2031,11 @@
       <c r="C20" s="4">
         <v>64</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="27">
         <v>15.68</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="6">
         <v>15.49</v>
       </c>
@@ -2134,11 +2133,11 @@
       <c r="C22" s="4">
         <v>64</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="27">
         <v>14.33</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="6">
         <v>12.53</v>
       </c>
@@ -2190,6 +2189,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D19:F19"/>
@@ -2199,11 +2203,6 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -2229,22 +2228,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -3266,22 +3265,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
@@ -4407,918 +4406,423 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="16" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="17"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="16" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="17"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="16" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="16" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="16" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="A63" s="17"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="A71" s="17"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="A72" s="17"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
+      <c r="A80" s="17"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="16" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="16" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5331,134 +4835,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0B48CE-F95E-4EC7-A02B-A6DD9397A14F}">
   <dimension ref="B4:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="P4" s="20" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="P4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="23" t="s">
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="19">
         <v>0.95</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="20">
         <v>0.9</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="20">
         <v>0.85</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="20">
         <v>0.8</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="20">
         <v>0.75</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="21">
         <v>0.7</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="19">
         <v>0.95</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="20">
         <v>0.9</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="20">
         <v>0.85</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="20">
         <v>0.8</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="20">
         <v>0.75</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="20">
         <v>0.7</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="19">
         <v>0.95</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="20">
         <v>0.9</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="20">
         <v>0.85</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="20">
         <v>0.8</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="20">
         <v>0.75</v>
       </c>
-      <c r="V5" s="33">
+      <c r="V5" s="21">
         <v>0.7</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="19">
         <v>0.95</v>
       </c>
-      <c r="X5" s="32">
+      <c r="X5" s="20">
         <v>0.9</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="20">
         <v>0.85</v>
       </c>
-      <c r="Z5" s="32">
+      <c r="Z5" s="20">
         <v>0.8</v>
       </c>
-      <c r="AA5" s="32">
+      <c r="AA5" s="20">
         <v>0.75</v>
       </c>
-      <c r="AB5" s="32">
+      <c r="AB5" s="20">
         <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="36" t="s">
         <v>44</v>
       </c>
       <c r="C6">
@@ -5479,7 +4983,7 @@
       <c r="H6" s="4">
         <v>22.22</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="14">
         <v>33.33</v>
       </c>
       <c r="J6">
@@ -5497,7 +5001,7 @@
       <c r="N6">
         <v>13.89</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="36" t="s">
         <v>45</v>
       </c>
       <c r="Q6">
@@ -5518,7 +5022,7 @@
       <c r="V6" s="4">
         <v>22.18</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W6" s="14">
         <v>16.66</v>
       </c>
       <c r="X6">
@@ -5538,7 +5042,7 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
+      <c r="B7" s="36"/>
       <c r="C7">
         <v>33.33</v>
       </c>
@@ -5557,7 +5061,7 @@
       <c r="H7" s="4">
         <v>19.440000000000001</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="14">
         <v>50</v>
       </c>
       <c r="J7">
@@ -5575,8 +5079,8 @@
       <c r="N7">
         <v>16.670000000000002</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="14">
         <v>20.61</v>
       </c>
       <c r="R7">
@@ -5594,7 +5098,7 @@
       <c r="V7" s="4">
         <v>23.33</v>
       </c>
-      <c r="W7" s="25">
+      <c r="W7" s="14">
         <v>16.73</v>
       </c>
       <c r="X7">
@@ -5614,7 +5118,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
+      <c r="B8" s="36"/>
       <c r="C8">
         <v>50</v>
       </c>
@@ -5633,7 +5137,7 @@
       <c r="H8" s="4">
         <v>22.22</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="14">
         <v>66.67</v>
       </c>
       <c r="J8">
@@ -5651,7 +5155,7 @@
       <c r="N8">
         <v>11.11</v>
       </c>
-      <c r="P8" s="24"/>
+      <c r="P8" s="36"/>
       <c r="Q8">
         <v>19.36</v>
       </c>
@@ -5670,7 +5174,7 @@
       <c r="V8" s="4">
         <v>22.96</v>
       </c>
-      <c r="W8" s="25">
+      <c r="W8" s="14">
         <v>16.59</v>
       </c>
       <c r="X8">
@@ -5690,16 +5194,16 @@
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
+      <c r="B9" s="36"/>
       <c r="F9">
         <v>33.33</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="14"/>
       <c r="L9">
         <v>20.83</v>
       </c>
-      <c r="P9" s="24"/>
+      <c r="P9" s="36"/>
       <c r="T9">
         <v>19.420000000000002</v>
       </c>
@@ -5709,192 +5213,192 @@
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="36"/>
       <c r="F10">
         <v>33.33</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="14"/>
       <c r="L10">
         <v>29.17</v>
       </c>
-      <c r="P10" s="24"/>
+      <c r="P10" s="36"/>
       <c r="T10">
         <v>20.93</v>
       </c>
       <c r="V10" s="4"/>
-      <c r="W10" s="25"/>
+      <c r="W10" s="14"/>
       <c r="Z10">
         <v>17.38</v>
       </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="36"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="25"/>
-      <c r="P11" s="24"/>
+      <c r="I11" s="14"/>
+      <c r="P11" s="36"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="25"/>
+      <c r="W11" s="14"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
+      <c r="B12" s="36"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="25"/>
-      <c r="P12" s="24"/>
+      <c r="I12" s="14"/>
+      <c r="P12" s="36"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="25"/>
+      <c r="W12" s="14"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
+      <c r="B13" s="36"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="25"/>
-      <c r="P13" s="24"/>
+      <c r="I13" s="14"/>
+      <c r="P13" s="36"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="25"/>
+      <c r="W13" s="14"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
+      <c r="B14" s="36"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="25"/>
-      <c r="P14" s="24"/>
+      <c r="I14" s="14"/>
+      <c r="P14" s="36"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="25"/>
+      <c r="W14" s="14"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
+      <c r="B15" s="36"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="25"/>
-      <c r="P15" s="24"/>
+      <c r="I15" s="14"/>
+      <c r="P15" s="36"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="25"/>
+      <c r="W15" s="14"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
+      <c r="B16" s="36"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="25"/>
-      <c r="P16" s="24"/>
+      <c r="I16" s="14"/>
+      <c r="P16" s="36"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="25"/>
+      <c r="W16" s="14"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="26">
+      <c r="B17" s="36"/>
+      <c r="C17" s="15">
         <f>AVERAGE(C6:C8)</f>
         <v>38.886666666666663</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="15">
         <f t="shared" ref="D17:N17" si="0">AVERAGE(D6:D8)</f>
         <v>38.89</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="15">
         <f t="shared" si="0"/>
         <v>24.073333333333334</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="15">
         <f>AVERAGE(F6:F10)</f>
         <v>28.332000000000001</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="15">
         <f t="shared" si="0"/>
         <v>31.113333333333333</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="15">
         <f t="shared" si="0"/>
         <v>21.293333333333333</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="15">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="15">
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="15">
         <f>AVERAGE(L6:L10)</f>
         <v>20</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="15">
         <f t="shared" si="0"/>
         <v>28.89</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="15">
         <f t="shared" si="0"/>
         <v>13.89</v>
       </c>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="26">
+      <c r="P17" s="36"/>
+      <c r="Q17" s="15">
         <f t="shared" ref="Q17:AB17" si="1">AVERAGE(Q6:Q8)</f>
         <v>20.256666666666664</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="15">
         <f t="shared" si="1"/>
         <v>20.656666666666666</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="15">
         <f t="shared" si="1"/>
         <v>23.026666666666667</v>
       </c>
-      <c r="T17" s="26">
+      <c r="T17" s="15">
         <f>AVERAGE(T6:T10)</f>
         <v>44.701999999999998</v>
       </c>
-      <c r="U17" s="26">
+      <c r="U17" s="15">
         <f t="shared" si="1"/>
         <v>21.36</v>
       </c>
-      <c r="V17" s="26">
+      <c r="V17" s="15">
         <f t="shared" si="1"/>
         <v>22.823333333333334</v>
       </c>
-      <c r="W17" s="26">
+      <c r="W17" s="15">
         <f t="shared" si="1"/>
         <v>16.66</v>
       </c>
-      <c r="X17" s="26">
+      <c r="X17" s="15">
         <f t="shared" si="1"/>
         <v>17.459999999999997</v>
       </c>
-      <c r="Y17" s="26">
+      <c r="Y17" s="15">
         <f t="shared" si="1"/>
         <v>20.506666666666664</v>
       </c>
-      <c r="Z17" s="26">
+      <c r="Z17" s="15">
         <f>AVERAGE(Z6:Z10)</f>
         <v>41.529999999999994</v>
       </c>
-      <c r="AA17" s="26">
+      <c r="AA17" s="15">
         <f t="shared" si="1"/>
         <v>17.059999999999999</v>
       </c>
-      <c r="AB17" s="26">
+      <c r="AB17" s="15">
         <f t="shared" si="1"/>
         <v>17.260000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
+      <c r="B18" s="36"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="25"/>
-      <c r="P18" s="24"/>
+      <c r="I18" s="14"/>
+      <c r="P18" s="36"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="25"/>
+      <c r="W18" s="14"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
+      <c r="B19" s="36"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="25"/>
-      <c r="P19" s="24"/>
+      <c r="I19" s="14"/>
+      <c r="P19" s="36"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="25"/>
+      <c r="W19" s="14"/>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="H20" s="4"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="O21" t="s">
@@ -5907,72 +5411,72 @@
       </c>
     </row>
     <row r="23" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
       <c r="O23" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="19">
         <v>0.95</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="20">
         <v>0.9</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="20">
         <v>0.85</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="20">
         <v>0.8</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="20">
         <v>0.75</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="21">
         <v>0.7</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="19">
         <v>0.95</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="20">
         <v>0.9</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="20">
         <v>0.85</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="20">
         <v>0.8</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="20">
         <v>0.75</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="20">
         <v>0.7</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C25">
@@ -5993,7 +5497,7 @@
       <c r="H25" s="4">
         <v>36.229999999999997</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="14">
         <v>19</v>
       </c>
       <c r="J25">
@@ -6013,7 +5517,7 @@
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
+      <c r="B26" s="36"/>
       <c r="C26">
         <v>18.14</v>
       </c>
@@ -6032,7 +5536,7 @@
       <c r="H26" s="4">
         <v>33.9</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="14">
         <v>15.08</v>
       </c>
       <c r="J26">
@@ -6052,7 +5556,7 @@
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
+      <c r="B27" s="36"/>
       <c r="C27">
         <v>16.170000000000002</v>
       </c>
@@ -6071,7 +5575,7 @@
       <c r="H27" s="4">
         <v>31.55</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="14">
         <v>13.24</v>
       </c>
       <c r="J27">
@@ -6091,129 +5595,129 @@
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
+      <c r="B28" s="36"/>
       <c r="F28">
         <v>28.66</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="25"/>
+      <c r="I28" s="14"/>
       <c r="L28">
         <v>31.73</v>
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="B29" s="36"/>
       <c r="F29">
         <v>26.84</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="25"/>
+      <c r="I29" s="14"/>
       <c r="L29">
         <v>28.2</v>
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
+      <c r="B30" s="36"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="25"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
+      <c r="B31" s="36"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="25"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
+      <c r="B32" s="36"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="25"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
+      <c r="B33" s="36"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="25"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
+      <c r="B34" s="36"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="25"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
+      <c r="B35" s="36"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="25"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="26">
+      <c r="B36" s="36"/>
+      <c r="C36" s="15">
         <f>AVERAGE(C25:C27)</f>
         <v>17.796666666666667</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="15">
         <f t="shared" ref="D36:N36" si="2">AVERAGE(D25:D27)</f>
         <v>21.650000000000002</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="15">
         <f t="shared" si="2"/>
         <v>26.953333333333333</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="15">
         <f>AVERAGE(F25:F29)</f>
         <v>45.660000000000004</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="15">
         <f t="shared" si="2"/>
         <v>27.746666666666666</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="15">
         <f t="shared" si="2"/>
         <v>33.893333333333331</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="15">
         <f t="shared" si="2"/>
         <v>15.773333333333333</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="15">
         <f t="shared" si="2"/>
         <v>22.55</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="15">
         <f t="shared" si="2"/>
         <v>23.863333333333333</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="15">
         <f>AVERAGE(L25:L29)</f>
         <v>48.17199999999999</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="15">
         <f t="shared" si="2"/>
         <v>35.603333333333332</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="15">
         <f t="shared" si="2"/>
         <v>62.04666666666666</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="24"/>
+      <c r="B37" s="36"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="25"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
+      <c r="B38" s="36"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="25"/>
+      <c r="I38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="P6:P19"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="I23:N23"/>
     <mergeCell ref="B25:B38"/>
     <mergeCell ref="C4:H4"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="P6:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6223,8 +5727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A78AAE-CA00-41B6-997B-F9DCAD3D7A4A}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6233,17 +5737,17 @@
       <c r="A1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="25">
         <v>45780</v>
       </c>
       <c r="B2">
@@ -6292,7 +5796,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="25">
         <v>45786</v>
       </c>
       <c r="B3">
@@ -6341,7 +5845,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="25">
         <v>45787</v>
       </c>
       <c r="B4">
@@ -6390,7 +5894,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="25">
         <v>45793</v>
       </c>
       <c r="B5">
@@ -6439,7 +5943,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="25">
         <v>45794</v>
       </c>
       <c r="B6">
@@ -6488,7 +5992,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="25">
         <v>45800</v>
       </c>
       <c r="B7">
@@ -6537,7 +6041,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="25">
         <v>45801</v>
       </c>
       <c r="B8">
@@ -6586,7 +6090,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="25">
         <v>45807</v>
       </c>
       <c r="B9">
@@ -6635,7 +6139,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="25">
         <v>45808</v>
       </c>
       <c r="B10">
@@ -6684,7 +6188,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="25">
         <v>45814</v>
       </c>
       <c r="B11">
@@ -6733,7 +6237,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="25">
         <v>45815</v>
       </c>
       <c r="B12">
@@ -6782,7 +6286,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="25">
         <v>45821</v>
       </c>
       <c r="B13">
@@ -6831,7 +6335,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="25">
         <v>45822</v>
       </c>
       <c r="B14">
@@ -6880,7 +6384,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="25">
         <v>45828</v>
       </c>
       <c r="B15">
@@ -6929,7 +6433,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="25">
         <v>45829</v>
       </c>
       <c r="B16">
@@ -6978,7 +6482,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="25">
         <v>45835</v>
       </c>
       <c r="B17">
@@ -7027,7 +6531,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="25">
         <v>45836</v>
       </c>
       <c r="B18">
@@ -7079,25 +6583,25 @@
       <c r="A19" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="23">
         <v>37.5</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="23">
         <v>36.5</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="23">
         <v>38.89</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="23">
         <v>41.67</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="23">
         <v>50</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="24">
         <v>36.67</v>
       </c>
-      <c r="H19" s="35"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20">
